--- a/READY FOR DEVELOP/E-Commerce/E-Commerce_ERD.xlsx
+++ b/READY FOR DEVELOP/E-Commerce/E-Commerce_ERD.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Database_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B84A29-A530-4183-9D39-EBDF50802E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="4335" yWindow="2445" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="142">
   <si>
     <t>User_Reviews</t>
   </si>
@@ -92,9 +93,6 @@
     <t>B</t>
   </si>
   <si>
-    <t>Ordered_Product_ID</t>
-  </si>
-  <si>
     <t>Order_Date</t>
   </si>
   <si>
@@ -125,9 +123,6 @@
     <t>C/300</t>
   </si>
   <si>
-    <t>Parent_Category_ID</t>
-  </si>
-  <si>
     <t>Product_Name</t>
   </si>
   <si>
@@ -143,36 +138,21 @@
     <t>Row_ID</t>
   </si>
   <si>
-    <t>Promotions_Name</t>
-  </si>
-  <si>
     <t>Discount_Rate</t>
   </si>
   <si>
-    <t>Categories</t>
-  </si>
-  <si>
-    <t>Parent_Categories</t>
-  </si>
-  <si>
     <t>Date_OF_Start</t>
   </si>
   <si>
     <t>Date_OF_End</t>
   </si>
   <si>
-    <t>Promotions_Type</t>
-  </si>
-  <si>
     <t>Customers</t>
   </si>
   <si>
     <t>Customer_ID</t>
   </si>
   <si>
-    <t>SSN</t>
-  </si>
-  <si>
     <t>Username</t>
   </si>
   <si>
@@ -278,9 +258,6 @@
     <t>Ship_Via</t>
   </si>
   <si>
-    <t>Freight</t>
-  </si>
-  <si>
     <t>Ship_Name</t>
   </si>
   <si>
@@ -353,9 +330,6 @@
     <t>C/250</t>
   </si>
   <si>
-    <t>OK</t>
-  </si>
-  <si>
     <t>Product_Campaingns</t>
   </si>
   <si>
@@ -377,12 +351,6 @@
     <t>PostalCode</t>
   </si>
   <si>
-    <t>Adrress</t>
-  </si>
-  <si>
-    <t>Store_keeper_SSN</t>
-  </si>
-  <si>
     <t>Employee_OF_Physical_Stores</t>
   </si>
   <si>
@@ -407,17 +375,89 @@
     <t>Type_OF_Card_ID</t>
   </si>
   <si>
-    <t>_Discount_ID_Card_Types</t>
-  </si>
-  <si>
     <t>Discont_Percentage</t>
+  </si>
+  <si>
+    <t>Main_Categories</t>
+  </si>
+  <si>
+    <t>Main_Category_ID</t>
+  </si>
+  <si>
+    <t>Sub_Categories</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>receipts</t>
+  </si>
+  <si>
+    <t>Shopping Carts</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Badges</t>
+  </si>
+  <si>
+    <t>Badge_ID</t>
+  </si>
+  <si>
+    <t>Department_Name</t>
+  </si>
+  <si>
+    <t>Discount_ID_Card_Types</t>
+  </si>
+  <si>
+    <t>Customer_SSN</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Cust_F_Name</t>
+  </si>
+  <si>
+    <t>Cust_L_Name</t>
+  </si>
+  <si>
+    <t>To_City</t>
+  </si>
+  <si>
+    <t>From_City</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Store_Email</t>
+  </si>
+  <si>
+    <t>Store_Phone</t>
+  </si>
+  <si>
+    <t>Campaingn_Name</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Tax_ID</t>
+  </si>
+  <si>
+    <t>Amount_Percentage</t>
+  </si>
+  <si>
+    <t>Fk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,6 +488,14 @@
       <sz val="14"/>
       <name val="Bahnschrift"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -513,7 +561,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -534,8 +582,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -559,20 +616,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>28577</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>114303</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Elbow Connector 2"/>
+        <xdr:cNvPr id="3" name="Elbow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -582,7 +645,7 @@
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 36100"/>
+            <a:gd name="adj1" fmla="val 42844"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -605,20 +668,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>9527</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Elbow Connector 7"/>
+        <xdr:cNvPr id="8" name="Elbow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -651,20 +720,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>9527</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>5876925</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Elbow Connector 11"/>
+        <xdr:cNvPr id="12" name="Elbow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -697,20 +772,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>5867400</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Elbow Connector 15"/>
+        <xdr:cNvPr id="16" name="Elbow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -743,20 +824,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>504826</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>85729</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="Elbow Connector 23"/>
+        <xdr:cNvPr id="24" name="Elbow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -766,7 +853,7 @@
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 56753"/>
+            <a:gd name="adj1" fmla="val 69940"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -789,20 +876,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="Elbow Connector 24"/>
+        <xdr:cNvPr id="25" name="Elbow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -812,7 +905,7 @@
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 56787"/>
+            <a:gd name="adj1" fmla="val 61629"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -835,26 +928,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="Right Bracket 33"/>
+        <xdr:cNvPr id="34" name="Right Bracket 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16030575" y="857250"/>
-          <a:ext cx="219075" cy="1571625"/>
+          <a:off x="17033082" y="714376"/>
+          <a:ext cx="171450" cy="1714500"/>
         </a:xfrm>
         <a:prstGeom prst="rightBracket">
           <a:avLst/>
@@ -887,20 +986,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>19051</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>133349</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>19053</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="Elbow Connector 34"/>
+        <xdr:cNvPr id="35" name="Elbow Connector 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -933,20 +1038,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>9527</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>76202</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>11906</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>130968</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="Elbow Connector 37"/>
+        <xdr:cNvPr id="38" name="Elbow Connector 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -979,20 +1090,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>76202</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>9527</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="Elbow Connector 41"/>
+        <xdr:cNvPr id="42" name="Elbow Connector 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1025,26 +1142,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1543050</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1857375</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="Left Bracket 44"/>
+        <xdr:cNvPr id="45" name="Left Bracket 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12630150" y="2438400"/>
-          <a:ext cx="581025" cy="5048250"/>
+          <a:off x="12632531" y="2450306"/>
+          <a:ext cx="857250" cy="5072063"/>
         </a:xfrm>
         <a:prstGeom prst="leftBracket">
           <a:avLst/>
@@ -1077,26 +1200,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1809749</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2333625</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>19049</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="Left Bracket 45"/>
+        <xdr:cNvPr id="46" name="Left Bracket 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12896849" y="5162550"/>
-          <a:ext cx="333375" cy="2152650"/>
+          <a:off x="13108781" y="5186363"/>
+          <a:ext cx="400049" cy="2164556"/>
         </a:xfrm>
         <a:prstGeom prst="leftBracket">
           <a:avLst/>
@@ -1129,78 +1258,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>1774031</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>11906</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>130968</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>2038349</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="Left Bracket 46"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17978437" y="4791075"/>
-          <a:ext cx="264318" cy="4119563"/>
-        </a:xfrm>
-        <a:prstGeom prst="leftBracket">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>3</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>3</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="Elbow Connector 47"/>
+        <xdr:cNvPr id="48" name="Elbow Connector 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="20202525" y="4752975"/>
-          <a:ext cx="3057528" cy="228600"/>
+        <a:xfrm rot="10800000">
+          <a:off x="25424606" y="4188618"/>
+          <a:ext cx="2321722" cy="554831"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -1227,20 +1310,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>123823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>19053</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="51" name="Elbow Connector 50"/>
+        <xdr:cNvPr id="51" name="Elbow Connector 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1273,20 +1362,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>3</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="55" name="Elbow Connector 54"/>
+        <xdr:cNvPr id="55" name="Elbow Connector 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1319,20 +1414,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>500066</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>23812</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="57" name="Elbow Connector 56"/>
+        <xdr:cNvPr id="57" name="Elbow Connector 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1365,20 +1466,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>95253</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="62" name="Elbow Connector 61"/>
+        <xdr:cNvPr id="62" name="Elbow Connector 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1411,20 +1518,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>3</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>104780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="69" name="Elbow Connector 68"/>
+        <xdr:cNvPr id="69" name="Elbow Connector 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1457,30 +1570,36 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19052</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>2028825</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:rowOff>28577</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="74" name="Elbow Connector 73"/>
+        <xdr:cNvPr id="74" name="Elbow Connector 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="11106152" y="2828926"/>
-          <a:ext cx="6896098" cy="1362075"/>
+          <a:off x="13820775" y="2809875"/>
+          <a:ext cx="8318500" cy="1276352"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 89503"/>
+            <a:gd name="adj1" fmla="val 81374"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -1503,30 +1622,36 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>11907</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>142878</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>11911</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>3</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>2562226</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>107156</xdr:rowOff>
+      <xdr:rowOff>107155</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="Elbow Connector 27"/>
+        <xdr:cNvPr id="28" name="Elbow Connector 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="10787063" y="10894222"/>
-          <a:ext cx="2107409" cy="357184"/>
+          <a:off x="10803736" y="10525125"/>
+          <a:ext cx="2550315" cy="650080"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj1" fmla="val 60458"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -1549,20 +1674,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>2095500</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>2424113</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>107155</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="Left Bracket 31"/>
+        <xdr:cNvPr id="32" name="Left Bracket 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1601,20 +1732,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1023938</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>107156</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1352551</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>130968</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="Left Bracket 32"/>
+        <xdr:cNvPr id="33" name="Left Bracket 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1653,30 +1790,36 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>500062</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>71439</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>500063</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:rowOff>119055</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="Elbow Connector 35"/>
+        <xdr:cNvPr id="36" name="Elbow Connector 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="10763250" y="10822783"/>
-          <a:ext cx="2726532" cy="2178842"/>
+          <a:off x="10777538" y="10601324"/>
+          <a:ext cx="2614613" cy="2338381"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 38646"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -1699,20 +1842,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>2107407</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>2436020</xdr:colOff>
       <xdr:row>65</xdr:row>
       <xdr:rowOff>71436</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="Left Bracket 38"/>
+        <xdr:cNvPr id="39" name="Left Bracket 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1755,20 +1904,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>500065</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>130969</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="50" name="Elbow Connector 49"/>
+        <xdr:cNvPr id="50" name="Elbow Connector 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1801,20 +1956,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1033462</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>69056</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>4763</xdr:colOff>
       <xdr:row>69</xdr:row>
       <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="Left Bracket 53"/>
+        <xdr:cNvPr id="54" name="Left Bracket 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1849,6 +2010,516 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57154</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Elbow Connector 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60B93196-10EA-4D86-81D5-808471F3A026}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="10848979" y="7286625"/>
+          <a:ext cx="4324346" cy="3505200"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 43585"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>511968</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Left Bracket 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B639911-9BB4-49DB-9109-4E33BD477DD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="22400418" y="4371974"/>
+          <a:ext cx="421482" cy="9182101"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBracket">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>6867525</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Elbow Connector 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B6EAFB0-D07E-421E-9ADB-833973CA32D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16897350" y="7305675"/>
+          <a:ext cx="6858000" cy="6029325"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1962150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Left Bracket 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B17AF79B-D621-4CD2-8E36-E5A2609E9997}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21859875" y="2647950"/>
+          <a:ext cx="276225" cy="9144000"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBracket">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>240507</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Left Bracket 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52E29026-DE4B-4A57-A917-755E53C57F10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="25422225" y="4371975"/>
+          <a:ext cx="230982" cy="6619875"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBracket">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19052</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Elbow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A406B3DF-F570-414E-B8EA-DFAFC6700FCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="3638552" y="7105651"/>
+          <a:ext cx="1352548" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1783556</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Left Bracket 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E20E21C4-955F-4693-911B-C77D27BF0FA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21681281" y="4733925"/>
+          <a:ext cx="464343" cy="4086225"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBracket">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Elbow Connector 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAFC2206-8C0D-42D1-AF0C-EE44FD2DFCAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="25422226" y="11001374"/>
+          <a:ext cx="2333625" cy="1552575"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>504828</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>2028826</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>76198</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Elbow Connector 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{284E3AB4-CC87-409A-9078-39C8231424AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="24588790" y="11806238"/>
+          <a:ext cx="3667123" cy="2038348"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 99870"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2116,1510 +2787,1779 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:Y74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:AB76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="36.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="34" style="4" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="40.7109375" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="37.42578125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="30.7109375" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="33.85546875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="7.7109375" style="3" customWidth="1"/>
-    <col min="18" max="18" width="35" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="3" customWidth="1"/>
-    <col min="20" max="20" width="30.7109375" style="4" customWidth="1"/>
-    <col min="21" max="21" width="7.7109375" style="3" customWidth="1"/>
-    <col min="22" max="22" width="20.28515625" style="3" customWidth="1"/>
-    <col min="23" max="23" width="7.7109375" style="3" customWidth="1"/>
-    <col min="24" max="24" width="30.7109375" style="4" customWidth="1"/>
-    <col min="25" max="25" width="7.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="36.7109375" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="34" style="4" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="38.5703125" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="37.42578125" style="4" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" style="3" customWidth="1"/>
+    <col min="17" max="17" width="33.42578125" customWidth="1"/>
+    <col min="18" max="18" width="7.7109375" style="3" customWidth="1"/>
+    <col min="19" max="19" width="33.85546875" style="4" customWidth="1"/>
+    <col min="20" max="20" width="7.7109375" style="3" customWidth="1"/>
+    <col min="21" max="21" width="35" customWidth="1"/>
+    <col min="22" max="22" width="7.7109375" style="3" customWidth="1"/>
+    <col min="23" max="23" width="30.7109375" style="4" customWidth="1"/>
+    <col min="24" max="24" width="7.7109375" style="3" customWidth="1"/>
+    <col min="25" max="25" width="20.28515625" style="3" customWidth="1"/>
+    <col min="26" max="26" width="7.7109375" style="3" customWidth="1"/>
+    <col min="27" max="27" width="30.7109375" style="4" customWidth="1"/>
+    <col min="28" max="28" width="7.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G2" s="6"/>
-      <c r="H2" s="2" t="s">
+    <row r="1" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="6"/>
+      <c r="K2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G3" s="3" t="s">
+      <c r="L2" s="5"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" s="5"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" s="5"/>
+    </row>
+    <row r="3" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="J3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="2" t="s">
+      <c r="N3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="J4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="F5" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="K5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="K6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="I7" s="1"/>
+      <c r="K7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="K8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J12" s="6"/>
+      <c r="K12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P12" s="5"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T12" s="5"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="4"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+      <c r="AB12"/>
+    </row>
+    <row r="13" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="J13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="W13" s="3"/>
+      <c r="X13" s="4"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+    </row>
+    <row r="14" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="J14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z14"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
+    </row>
+    <row r="15" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="J15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U15" s="3"/>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15"/>
+    </row>
+    <row r="16" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="K16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+    </row>
+    <row r="17" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="K17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y17" s="4"/>
+      <c r="AA17"/>
+      <c r="AB17"/>
+    </row>
+    <row r="18" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="K18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S18"/>
+      <c r="U18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="AA18"/>
+      <c r="AB18"/>
+    </row>
+    <row r="19" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="K19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S19"/>
+      <c r="U19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="AA19"/>
+      <c r="AB19"/>
+    </row>
+    <row r="20" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S20"/>
+      <c r="U20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="AA20"/>
+      <c r="AB20"/>
+    </row>
+    <row r="21" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R21" s="6"/>
+      <c r="S21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T21" s="5"/>
+      <c r="U21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="AA21"/>
+      <c r="AB21"/>
+    </row>
+    <row r="22" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="V22" s="6"/>
+      <c r="W22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="X22" s="5"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB22" s="5"/>
+    </row>
+    <row r="23" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="R23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA23" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB23" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="R24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="W24" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA24" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB24" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="W25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="X25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB25" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J26" s="6"/>
+      <c r="K26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L26" s="5"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P26" s="5"/>
+      <c r="S26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="X26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB26" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="6:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F27" s="6"/>
+      <c r="G27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H27" s="5"/>
+      <c r="J27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="T27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="W27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="X27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB27" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="F28" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="T28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="X28" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="G29" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="7"/>
+    </row>
+    <row r="30" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="G30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S30" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="X30" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="G31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="S31" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="T31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="X31" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="6:28" x14ac:dyDescent="0.25">
+      <c r="K32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S32" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="O33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S33" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="M3" s="5"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="2" t="s">
+      <c r="T33" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S34" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="Q3" s="5"/>
-    </row>
-    <row r="4" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="G4" s="3" t="s">
+      <c r="T34" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F35" s="6"/>
+      <c r="G35" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H35" s="5"/>
+      <c r="S35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="T35" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="6"/>
+      <c r="C36" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="F36" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="3" t="s">
+      <c r="G36" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="T36" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="C37" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J37" s="6"/>
+      <c r="K37" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L37" s="5"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="P37" s="5"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="6"/>
+      <c r="AA37" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB37" s="5"/>
+    </row>
+    <row r="38" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="V38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W38" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="X38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z38" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA38" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB38" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="G39" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="W39" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="X39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA39" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB39" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="F40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W40" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="X40" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA40" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB40" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="G41" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W41" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="X41" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA41" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB41" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="G42" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O42" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W42" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="X42" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K43" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="O43" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="P43" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F44" s="6"/>
+      <c r="G44" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H44" s="5"/>
+      <c r="J44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O44" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O45" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R45" s="6"/>
+      <c r="S45" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="T45" s="5"/>
+      <c r="Y45" s="7"/>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="G46" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O46" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S46" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="T46" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="O4" s="3" t="s">
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="G47" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O47" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S47" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="G48" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O48" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S48" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="G49" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S49" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="K50" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S50" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="T50" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="6:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K51" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S51" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="T51" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="6:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F52" s="6"/>
+      <c r="G52" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H52" s="5"/>
+      <c r="S52" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="6:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N53" s="6"/>
+      <c r="O53" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="P53" s="5"/>
+      <c r="S53" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="T53" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="6:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G54" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q4" s="3" t="s">
+      <c r="O54" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P54" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C5" s="8" t="s">
+    <row r="55" spans="6:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G55" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N55" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O55" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="P55" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R55" s="6"/>
+      <c r="S55" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="T55" s="5"/>
+    </row>
+    <row r="56" spans="6:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G56" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J56" s="6"/>
+      <c r="K56" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="L56" s="5"/>
+      <c r="N56" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O56" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="P56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R56" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S56" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T56" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="V56" s="6"/>
+      <c r="W56" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="X56" s="5"/>
+    </row>
+    <row r="57" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="G57" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O57" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S57" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W57" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="X57" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="J58" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O58" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S58" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W58" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="X58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="6:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K59" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O59" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S59" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W59" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="6:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F60" s="6"/>
+      <c r="G60" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H60" s="5"/>
+      <c r="K60" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O60" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S60" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="H5" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="3" t="s">
+      <c r="T60" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="W60" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="X60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F61" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O5" s="3" t="s">
+      <c r="G61" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O61" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="P61" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="R61" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="P5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="H6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="M6" s="3" t="s">
+      <c r="S61" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T61" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="G62" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O62" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S62" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="6:24" x14ac:dyDescent="0.25">
+      <c r="F63" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O63" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P63" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S63" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="T63" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="6:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G64" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N64"/>
+      <c r="O64" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="P64" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S64" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="T64" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="6:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G65" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J65" s="6"/>
+      <c r="K65" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="L65" s="5"/>
+      <c r="S65" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T65" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="6:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G66" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K66" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="6:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G67" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R67" s="6"/>
+      <c r="S67" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="T67" s="5"/>
+    </row>
+    <row r="68" spans="6:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K68" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R68" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S68" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T68" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="6:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F69" s="6"/>
+      <c r="G69" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H69" s="5"/>
+      <c r="K69" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R69" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S69" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T69" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F70" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K70" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="R70" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S70" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T70" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="G71" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H71" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="F7" s="1"/>
-      <c r="H7" s="4" t="s">
+      <c r="K71" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="H8" s="4" t="s">
+      <c r="L71" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S71" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="T71" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="G72" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K72" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="4" t="s">
+      <c r="L72" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S72" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="G73" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="L9" s="4" t="s">
+      <c r="H73" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S73" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="T73" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="G74" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G12" s="6"/>
-      <c r="H12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M12" s="5"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q12" s="5"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="4"/>
-      <c r="W12"/>
-      <c r="X12"/>
-      <c r="Y12"/>
-    </row>
-    <row r="13" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="G13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="T13" s="3"/>
-      <c r="U13" s="4"/>
-      <c r="W13"/>
-      <c r="X13"/>
-      <c r="Y13"/>
-    </row>
-    <row r="14" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="G14" s="3" t="s">
+      <c r="H74" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="S74" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="T74" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="S75" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="T75" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="R76" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W14"/>
-      <c r="X14"/>
-      <c r="Y14"/>
-    </row>
-    <row r="15" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="G15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R15" s="3"/>
-      <c r="V15"/>
-      <c r="W15"/>
-      <c r="X15"/>
-      <c r="Y15"/>
-    </row>
-    <row r="16" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="H16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="X16"/>
-      <c r="Y16"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="H17" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V17" s="4"/>
-      <c r="X17"/>
-      <c r="Y17"/>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="H18" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P18"/>
-      <c r="R18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="X18"/>
-      <c r="Y18"/>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="H19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19"/>
-      <c r="R19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="X19"/>
-      <c r="Y19"/>
-    </row>
-    <row r="20" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P20"/>
-      <c r="R20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="X20"/>
-      <c r="Y20"/>
-    </row>
-    <row r="21" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O21" s="6"/>
-      <c r="P21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="X21"/>
-      <c r="Y21"/>
-    </row>
-    <row r="22" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="S22" s="6"/>
-      <c r="T22" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="U22" s="5"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y22" s="5"/>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="O23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T23" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="U23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="W23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X23" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y23" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="O24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="P24" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="T24" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="U24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X24" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y24" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O25" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="P25" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S25" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="T25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="U25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="X25" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y25" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G26" s="6"/>
-      <c r="H26" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I26" s="5"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="M26" s="5"/>
-      <c r="P26" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="T26" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="U26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="X26" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y26" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="6"/>
-      <c r="D27" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E27" s="5"/>
-      <c r="G27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P27" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T27" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="U27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="X27" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y27" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="C28" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P28" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q28" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="T28" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="U28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="X28" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y28" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="D29" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P29" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T29" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V29" s="7"/>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="D30" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P30" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q30" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T30" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="U30" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="D31" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P31" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q31" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T31" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="U31" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="P32" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q32" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="P33" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q33" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="P34" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q34" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="6"/>
-      <c r="D35" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E35" s="5"/>
-      <c r="P35" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P36" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q36" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G37" s="6"/>
-      <c r="H37" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I37" s="5"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="M37" s="5"/>
-      <c r="S37" s="6"/>
-      <c r="T37" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="U37" s="5"/>
-      <c r="V37" s="7"/>
-      <c r="W37" s="6"/>
-      <c r="X37" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y37" s="5"/>
-    </row>
-    <row r="38" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="D38" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L38" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="M38" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="S38" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T38" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="U38" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="W38" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X38" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y38" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="D39" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L39" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="M39" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S39" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="T39" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="U39" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="X39" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y39" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="D40" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L40" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T40" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="U40" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="X40" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y40" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="D41" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L41" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="T41" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="U41" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="X41" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y41" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="H42" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L42" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="T42" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="U42" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H43" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="L43" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="6"/>
-      <c r="D44" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E44" s="5"/>
-      <c r="G44" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="L44" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="3:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L45" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O45" s="6"/>
-      <c r="P45" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q45" s="5"/>
-      <c r="V45" s="7"/>
-    </row>
-    <row r="46" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="D46" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L46" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="P46" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q46" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="D47" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L47" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P47" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="3:25" x14ac:dyDescent="0.25">
-      <c r="D48" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="L48" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P48" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="D49" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L49" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P49" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="H50" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P50" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q50" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H51" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P51" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q51" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="6"/>
-      <c r="D52" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E52" s="5"/>
-      <c r="P52" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P53" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q53" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="54" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D54" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K54" s="6"/>
-      <c r="L54" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="M54" s="5"/>
-    </row>
-    <row r="55" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D55" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L55" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M55" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D56" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" s="6"/>
-      <c r="H56" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="I56" s="5"/>
-      <c r="K56" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L56" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="M56" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="D57" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L57" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="G58" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H58" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L58" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H59" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L59" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="60" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="6"/>
-      <c r="D60" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E60" s="5"/>
-      <c r="H60" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L60" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C61" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L61" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M61" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="D62" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L62" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C63" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L63" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="M63" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="64" spans="3:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D64" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64"/>
-      <c r="L64"/>
-      <c r="M64"/>
-    </row>
-    <row r="65" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D65" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" s="6"/>
-      <c r="H65" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I65" s="5"/>
-    </row>
-    <row r="66" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D66" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H66" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D67" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="68" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H68" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C69" s="6"/>
-      <c r="D69" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E69" s="5"/>
-      <c r="H69" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C70" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D71" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="72" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D72" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D73" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="74" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="D74" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>11</v>
+      <c r="S76" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C5:E6"/>
+  <mergeCells count="2">
+    <mergeCell ref="F5:H6"/>
+    <mergeCell ref="F10:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
